--- a/Attachment/SPV OPS IBC.xlsx
+++ b/Attachment/SPV OPS IBC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SERVICE OPERATION 1 REBORN\10. KINERJA OPS\2022\RPA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
+    <workbookView xWindow="720" yWindow="600" windowWidth="19635" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="SPV OPS IBC" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,14 +22,14 @@
     <author>HR1</author>
   </authors>
   <commentList>
-    <comment ref="K5" authorId="0" shapeId="0">
+    <comment ref="K5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>HR1:</t>
         </r>
@@ -47,21 +37,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 JIKA STATUSNYA SEDANG CUMIL MAKA DITULIS CUMIL</t>
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>HR1:</t>
         </r>
@@ -69,7 +59,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 RESIGN PROSEDURAL = 1
@@ -273,34 +263,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,68 +283,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="KaiTi"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -577,7 +581,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -585,10 +589,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -694,7 +705,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +756,10 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,6 +770,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -931,15 +943,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="16">
+    <cellStyle name="Comma [0] 2" xfId="9"/>
     <cellStyle name="Comma 2 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 13" xfId="10"/>
+    <cellStyle name="Normal 2 2" xfId="11"/>
+    <cellStyle name="Normal 2 2 101" xfId="12"/>
     <cellStyle name="Normal 3 3" xfId="3"/>
+    <cellStyle name="Normal 3 3 2" xfId="13"/>
     <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 4 10" xfId="14"/>
     <cellStyle name="Normal 4 2" xfId="4"/>
     <cellStyle name="Normal_Kinerja Nov 08" xfId="8"/>
     <cellStyle name="Normal_Kinerja Siska Sept 2010" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="15"/>
     <cellStyle name="Percent 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="5">
@@ -990,9 +1009,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1016,269 +1032,350 @@
             <v>PERIODE   : JANUARI 2022</v>
           </cell>
         </row>
-        <row r="248">
-          <cell r="C248" t="str">
+        <row r="244">
+          <cell r="C244" t="str">
             <v>AAN YANUAR</v>
           </cell>
-          <cell r="D248" t="str">
+          <cell r="D244" t="str">
             <v>SUPERVISOR INBOUND</v>
           </cell>
-          <cell r="E248"/>
-          <cell r="F248"/>
-          <cell r="G248"/>
-          <cell r="H248"/>
-          <cell r="I248"/>
-          <cell r="J248"/>
-          <cell r="K248"/>
-          <cell r="L248"/>
-          <cell r="M248"/>
-          <cell r="N248"/>
-          <cell r="O248"/>
-          <cell r="P248"/>
-          <cell r="Q248">
-            <v>14</v>
-          </cell>
-          <cell r="R248"/>
-          <cell r="S248">
-            <v>0.84782608695652173</v>
-          </cell>
-          <cell r="T248"/>
-          <cell r="U248"/>
-          <cell r="V248"/>
-          <cell r="W248"/>
-          <cell r="X248"/>
-          <cell r="Y248"/>
-          <cell r="Z248"/>
-          <cell r="AA248"/>
-          <cell r="AB248"/>
-          <cell r="AC248"/>
-          <cell r="AD248"/>
-          <cell r="AE248"/>
-          <cell r="AF248"/>
-          <cell r="AG248"/>
-          <cell r="AH248"/>
-          <cell r="AI248"/>
-          <cell r="AJ248"/>
-          <cell r="AK248"/>
-          <cell r="AL248"/>
-          <cell r="AM248"/>
-          <cell r="AN248"/>
-          <cell r="AO248"/>
-          <cell r="AP248"/>
-          <cell r="AQ248">
-            <v>78</v>
-          </cell>
-          <cell r="AR248"/>
-          <cell r="AS248">
-            <v>0.84782608695652173</v>
-          </cell>
-          <cell r="AT248"/>
-          <cell r="AU248"/>
-          <cell r="AV248">
-            <v>64</v>
-          </cell>
-          <cell r="AW248"/>
-          <cell r="AX248">
-            <v>0.69565217391304346</v>
-          </cell>
-          <cell r="AY248"/>
-          <cell r="AZ248">
-            <v>92</v>
-          </cell>
-          <cell r="BA248">
+          <cell r="E244"/>
+          <cell r="F244"/>
+          <cell r="G244"/>
+          <cell r="H244"/>
+          <cell r="I244"/>
+          <cell r="J244"/>
+          <cell r="K244"/>
+          <cell r="L244"/>
+          <cell r="M244"/>
+          <cell r="N244"/>
+          <cell r="O244"/>
+          <cell r="P244"/>
+          <cell r="Q244">
+            <v>12</v>
+          </cell>
+          <cell r="R244"/>
+          <cell r="S244">
+            <v>0.875</v>
+          </cell>
+          <cell r="T244"/>
+          <cell r="U244"/>
+          <cell r="V244"/>
+          <cell r="W244"/>
+          <cell r="X244"/>
+          <cell r="Y244"/>
+          <cell r="Z244"/>
+          <cell r="AA244"/>
+          <cell r="AB244"/>
+          <cell r="AC244"/>
+          <cell r="AD244"/>
+          <cell r="AE244"/>
+          <cell r="AF244"/>
+          <cell r="AG244"/>
+          <cell r="AH244"/>
+          <cell r="AI244"/>
+          <cell r="AJ244"/>
+          <cell r="AK244"/>
+          <cell r="AL244"/>
+          <cell r="AM244"/>
+          <cell r="AN244"/>
+          <cell r="AO244"/>
+          <cell r="AP244"/>
+          <cell r="AQ244">
+            <v>87</v>
+          </cell>
+          <cell r="AR244"/>
+          <cell r="AS244">
+            <v>0.90625</v>
+          </cell>
+          <cell r="AT244"/>
+          <cell r="AU244"/>
+          <cell r="AV244">
+            <v>68</v>
+          </cell>
+          <cell r="AW244"/>
+          <cell r="AX244">
+            <v>0.70833333333333337</v>
+          </cell>
+          <cell r="AY244"/>
+          <cell r="AZ244">
+            <v>96</v>
+          </cell>
+          <cell r="BA244">
             <v>1</v>
           </cell>
-          <cell r="BB248"/>
-          <cell r="BC248">
+          <cell r="BB244"/>
+          <cell r="BC244">
             <v>0.91890000000000005</v>
           </cell>
-          <cell r="BD248">
+          <cell r="BD244">
             <v>0.91890000000000005</v>
           </cell>
-          <cell r="BE248"/>
-          <cell r="BF248"/>
-          <cell r="BG248"/>
-          <cell r="BH248">
+          <cell r="BE244"/>
+          <cell r="BF244"/>
+          <cell r="BG244"/>
+          <cell r="BH244">
             <v>0.64680000000000004</v>
           </cell>
-          <cell r="BI248">
+          <cell r="BI244">
             <v>0.64680000000000004</v>
           </cell>
-          <cell r="BJ248"/>
-          <cell r="BK248"/>
-          <cell r="BL248">
-            <v>92</v>
-          </cell>
-          <cell r="BM248">
+          <cell r="BJ244"/>
+          <cell r="BK244"/>
+          <cell r="BL244">
+            <v>96</v>
+          </cell>
+          <cell r="BM244">
             <v>1</v>
           </cell>
-          <cell r="BN248"/>
+          <cell r="BN244"/>
+          <cell r="BO244"/>
+          <cell r="BP244"/>
+          <cell r="BQ244"/>
+          <cell r="BR244"/>
+          <cell r="BS244"/>
+          <cell r="BT244"/>
+          <cell r="BU244"/>
+          <cell r="BV244"/>
+          <cell r="BW244"/>
+          <cell r="BX244"/>
+          <cell r="BY244"/>
+          <cell r="BZ244"/>
+          <cell r="CA244"/>
+          <cell r="CB244"/>
+          <cell r="CC244"/>
+          <cell r="CD244"/>
+          <cell r="CE244"/>
+          <cell r="CF244"/>
+          <cell r="CG244"/>
+          <cell r="CH244"/>
+          <cell r="CI244"/>
+          <cell r="CJ244"/>
+          <cell r="CK244"/>
+          <cell r="CL244"/>
+          <cell r="CM244"/>
+          <cell r="CN244"/>
+          <cell r="CO244"/>
         </row>
-        <row r="249">
-          <cell r="C249" t="str">
+        <row r="245">
+          <cell r="C245" t="str">
             <v>RIKA RIANY</v>
           </cell>
-          <cell r="D249" t="str">
+          <cell r="D245" t="str">
             <v>SUPERVISOR INBOUND</v>
           </cell>
-          <cell r="E249"/>
-          <cell r="F249"/>
-          <cell r="G249"/>
-          <cell r="H249"/>
-          <cell r="I249"/>
-          <cell r="J249"/>
-          <cell r="K249"/>
-          <cell r="L249"/>
-          <cell r="M249"/>
-          <cell r="N249"/>
-          <cell r="O249"/>
-          <cell r="P249"/>
-          <cell r="Q249">
+          <cell r="E245"/>
+          <cell r="F245"/>
+          <cell r="G245"/>
+          <cell r="H245"/>
+          <cell r="I245"/>
+          <cell r="J245"/>
+          <cell r="K245"/>
+          <cell r="L245"/>
+          <cell r="M245"/>
+          <cell r="N245"/>
+          <cell r="O245"/>
+          <cell r="P245"/>
+          <cell r="Q245">
             <v>17</v>
           </cell>
-          <cell r="R249"/>
-          <cell r="S249">
-            <v>0.83495145631067957</v>
-          </cell>
-          <cell r="T249"/>
-          <cell r="U249"/>
-          <cell r="V249"/>
-          <cell r="W249"/>
-          <cell r="X249"/>
-          <cell r="Y249"/>
-          <cell r="Z249"/>
-          <cell r="AA249"/>
-          <cell r="AB249"/>
-          <cell r="AC249"/>
-          <cell r="AD249"/>
-          <cell r="AE249"/>
-          <cell r="AF249"/>
-          <cell r="AG249"/>
-          <cell r="AH249"/>
-          <cell r="AI249"/>
-          <cell r="AJ249"/>
-          <cell r="AK249"/>
-          <cell r="AL249"/>
-          <cell r="AM249"/>
-          <cell r="AN249"/>
-          <cell r="AO249"/>
-          <cell r="AP249"/>
-          <cell r="AQ249">
-            <v>90</v>
-          </cell>
-          <cell r="AR249"/>
-          <cell r="AS249">
-            <v>0.87378640776699024</v>
-          </cell>
-          <cell r="AT249"/>
-          <cell r="AU249"/>
-          <cell r="AV249">
-            <v>78</v>
-          </cell>
-          <cell r="AW249"/>
-          <cell r="AX249">
-            <v>0.75728155339805825</v>
-          </cell>
-          <cell r="AY249"/>
-          <cell r="AZ249">
-            <v>104</v>
-          </cell>
-          <cell r="BA249">
-            <v>1.0097087378640777</v>
-          </cell>
-          <cell r="BB249"/>
-          <cell r="BC249">
+          <cell r="R245"/>
+          <cell r="S245">
+            <v>0.81914893617021278</v>
+          </cell>
+          <cell r="T245"/>
+          <cell r="U245"/>
+          <cell r="V245"/>
+          <cell r="W245"/>
+          <cell r="X245"/>
+          <cell r="Y245"/>
+          <cell r="Z245"/>
+          <cell r="AA245"/>
+          <cell r="AB245"/>
+          <cell r="AC245"/>
+          <cell r="AD245"/>
+          <cell r="AE245"/>
+          <cell r="AF245"/>
+          <cell r="AG245"/>
+          <cell r="AH245"/>
+          <cell r="AI245"/>
+          <cell r="AJ245"/>
+          <cell r="AK245"/>
+          <cell r="AL245"/>
+          <cell r="AM245"/>
+          <cell r="AN245"/>
+          <cell r="AO245"/>
+          <cell r="AP245"/>
+          <cell r="AQ245">
+            <v>82</v>
+          </cell>
+          <cell r="AR245"/>
+          <cell r="AS245">
+            <v>0.87234042553191493</v>
+          </cell>
+          <cell r="AT245"/>
+          <cell r="AU245"/>
+          <cell r="AV245">
+            <v>69</v>
+          </cell>
+          <cell r="AW245"/>
+          <cell r="AX245">
+            <v>0.73404255319148937</v>
+          </cell>
+          <cell r="AY245"/>
+          <cell r="AZ245">
+            <v>95</v>
+          </cell>
+          <cell r="BA245">
+            <v>1.0106382978723405</v>
+          </cell>
+          <cell r="BB245"/>
+          <cell r="BC245">
             <v>0.91890000000000005</v>
           </cell>
-          <cell r="BD249">
+          <cell r="BD245">
             <v>0.91890000000000005</v>
           </cell>
-          <cell r="BE249"/>
-          <cell r="BF249"/>
-          <cell r="BG249"/>
-          <cell r="BH249">
+          <cell r="BE245"/>
+          <cell r="BF245"/>
+          <cell r="BG245"/>
+          <cell r="BH245">
             <v>0.64680000000000004</v>
           </cell>
-          <cell r="BI249">
+          <cell r="BI245">
             <v>0.64680000000000004</v>
           </cell>
-          <cell r="BJ249"/>
-          <cell r="BK249"/>
-          <cell r="BL249">
-            <v>104</v>
-          </cell>
-          <cell r="BM249">
-            <v>1.0097087378640777</v>
-          </cell>
-          <cell r="BN249"/>
+          <cell r="BJ245"/>
+          <cell r="BK245"/>
+          <cell r="BL245">
+            <v>95</v>
+          </cell>
+          <cell r="BM245">
+            <v>1.0106382978723405</v>
+          </cell>
+          <cell r="BN245"/>
+          <cell r="BO245"/>
+          <cell r="BP245"/>
+          <cell r="BQ245"/>
+          <cell r="BR245"/>
+          <cell r="BS245"/>
+          <cell r="BT245"/>
+          <cell r="BU245"/>
+          <cell r="BV245"/>
+          <cell r="BW245"/>
+          <cell r="BX245"/>
+          <cell r="BY245"/>
+          <cell r="BZ245"/>
+          <cell r="CA245"/>
+          <cell r="CB245"/>
+          <cell r="CC245"/>
+          <cell r="CD245"/>
+          <cell r="CE245"/>
+          <cell r="CF245"/>
+          <cell r="CG245"/>
+          <cell r="CH245"/>
+          <cell r="CI245"/>
+          <cell r="CJ245"/>
+          <cell r="CK245"/>
+          <cell r="CL245"/>
+          <cell r="CM245"/>
+          <cell r="CN245"/>
+          <cell r="CO245"/>
         </row>
-        <row r="250">
-          <cell r="C250"/>
-          <cell r="D250"/>
-          <cell r="E250"/>
-          <cell r="F250"/>
-          <cell r="G250"/>
-          <cell r="H250"/>
-          <cell r="I250"/>
-          <cell r="J250"/>
-          <cell r="K250"/>
-          <cell r="L250"/>
-          <cell r="M250"/>
-          <cell r="N250"/>
-          <cell r="O250"/>
-          <cell r="P250"/>
-          <cell r="Q250">
-            <v>31</v>
-          </cell>
-          <cell r="R250"/>
-          <cell r="S250"/>
-          <cell r="T250"/>
-          <cell r="U250"/>
-          <cell r="V250"/>
-          <cell r="W250"/>
-          <cell r="X250"/>
-          <cell r="Y250"/>
-          <cell r="Z250"/>
-          <cell r="AA250"/>
-          <cell r="AB250"/>
-          <cell r="AC250"/>
-          <cell r="AD250"/>
-          <cell r="AE250"/>
-          <cell r="AF250"/>
-          <cell r="AG250"/>
-          <cell r="AH250"/>
-          <cell r="AI250"/>
-          <cell r="AJ250"/>
-          <cell r="AK250"/>
-          <cell r="AL250"/>
-          <cell r="AM250"/>
-          <cell r="AN250"/>
-          <cell r="AO250"/>
-          <cell r="AP250"/>
-          <cell r="AQ250"/>
-          <cell r="AR250"/>
-          <cell r="AS250"/>
-          <cell r="AT250"/>
-          <cell r="AU250"/>
-          <cell r="AV250"/>
-          <cell r="AW250"/>
-          <cell r="AX250"/>
-          <cell r="AY250"/>
-          <cell r="AZ250"/>
-          <cell r="BA250"/>
-          <cell r="BB250"/>
-          <cell r="BC250"/>
-          <cell r="BD250"/>
-          <cell r="BE250"/>
-          <cell r="BF250"/>
-          <cell r="BG250"/>
-          <cell r="BH250"/>
-          <cell r="BI250"/>
-          <cell r="BJ250"/>
-          <cell r="BK250"/>
-          <cell r="BL250"/>
-          <cell r="BM250"/>
-          <cell r="BN250"/>
+        <row r="246">
+          <cell r="C246"/>
+          <cell r="D246"/>
+          <cell r="E246"/>
+          <cell r="F246"/>
+          <cell r="G246"/>
+          <cell r="H246"/>
+          <cell r="I246"/>
+          <cell r="J246"/>
+          <cell r="K246"/>
+          <cell r="L246"/>
+          <cell r="M246"/>
+          <cell r="N246"/>
+          <cell r="O246"/>
+          <cell r="P246"/>
+          <cell r="Q246">
+            <v>29</v>
+          </cell>
+          <cell r="R246"/>
+          <cell r="S246"/>
+          <cell r="T246"/>
+          <cell r="U246"/>
+          <cell r="V246"/>
+          <cell r="W246"/>
+          <cell r="X246"/>
+          <cell r="Y246"/>
+          <cell r="Z246"/>
+          <cell r="AA246"/>
+          <cell r="AB246"/>
+          <cell r="AC246"/>
+          <cell r="AD246"/>
+          <cell r="AE246"/>
+          <cell r="AF246"/>
+          <cell r="AG246"/>
+          <cell r="AH246"/>
+          <cell r="AI246"/>
+          <cell r="AJ246"/>
+          <cell r="AK246"/>
+          <cell r="AL246"/>
+          <cell r="AM246"/>
+          <cell r="AN246"/>
+          <cell r="AO246"/>
+          <cell r="AP246"/>
+          <cell r="AQ246"/>
+          <cell r="AR246"/>
+          <cell r="AS246"/>
+          <cell r="AT246"/>
+          <cell r="AU246"/>
+          <cell r="AV246"/>
+          <cell r="AW246"/>
+          <cell r="AX246"/>
+          <cell r="AY246"/>
+          <cell r="AZ246"/>
+          <cell r="BA246"/>
+          <cell r="BB246"/>
+          <cell r="BC246"/>
+          <cell r="BD246"/>
+          <cell r="BE246"/>
+          <cell r="BF246"/>
+          <cell r="BG246"/>
+          <cell r="BH246"/>
+          <cell r="BI246"/>
+          <cell r="BJ246"/>
+          <cell r="BK246"/>
+          <cell r="BL246"/>
+          <cell r="BM246"/>
+          <cell r="BN246"/>
+          <cell r="BO246"/>
+          <cell r="BP246"/>
+          <cell r="BQ246"/>
+          <cell r="BR246"/>
+          <cell r="BS246"/>
+          <cell r="BT246"/>
+          <cell r="BU246"/>
+          <cell r="BV246"/>
+          <cell r="BW246"/>
+          <cell r="BX246"/>
+          <cell r="BY246"/>
+          <cell r="BZ246"/>
+          <cell r="CA246"/>
+          <cell r="CB246"/>
+          <cell r="CC246"/>
+          <cell r="CD246"/>
+          <cell r="CE246"/>
+          <cell r="CF246"/>
+          <cell r="CG246"/>
+          <cell r="CH246"/>
+          <cell r="CI246"/>
+          <cell r="CJ246"/>
+          <cell r="CK246"/>
+          <cell r="CL246"/>
+          <cell r="CM246"/>
+          <cell r="CN246"/>
+          <cell r="CO246"/>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -1299,44 +1396,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1366,12 +1463,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1410,157 +1507,181 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BU11"/>
+  <dimension ref="B1:BW11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="AX10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
@@ -1573,10 +1694,12 @@
     <col min="67" max="67" width="13.85546875" style="6" customWidth="1"/>
     <col min="68" max="68" width="11.7109375" style="6" customWidth="1"/>
     <col min="69" max="70" width="13.7109375" style="6" customWidth="1"/>
-    <col min="71" max="16384" width="9" style="6"/>
+    <col min="71" max="74" width="9" style="6"/>
+    <col min="75" max="75" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="76" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:75">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1772,7 @@
       <c r="BQ1" s="4"/>
       <c r="BR1" s="4"/>
     </row>
-    <row r="2" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:75">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1845,7 @@
       <c r="BQ2" s="4"/>
       <c r="BR2" s="4"/>
     </row>
-    <row r="3" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:75">
       <c r="B3" s="9" t="str">
         <f>'[1]DATA UNTUK TL'!C4</f>
         <v>PERIODE   : JANUARI 2022</v>
@@ -1796,7 +1919,7 @@
       <c r="BQ3" s="4"/>
       <c r="BR3" s="4"/>
     </row>
-    <row r="4" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:75">
       <c r="B4" s="1"/>
       <c r="C4" s="9"/>
       <c r="D4" s="3"/>
@@ -1867,445 +1990,445 @@
       <c r="BQ4" s="4"/>
       <c r="BR4" s="4"/>
     </row>
-    <row r="5" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B5" s="108" t="s">
+    <row r="5" spans="2:75">
+      <c r="B5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="105" t="s">
+      <c r="H5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="102" t="s">
+      <c r="P5" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="102" t="s">
+      <c r="Q5" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="102" t="s">
+      <c r="R5" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="102" t="s">
+      <c r="S5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="94" t="s">
+      <c r="T5" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="94" t="s">
+      <c r="U5" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="97" t="s">
+      <c r="V5" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="89" t="s">
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="99"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="99"/>
+      <c r="AK5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AL5" s="97" t="s">
+      <c r="AL5" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
-      <c r="BA5" s="98"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="98"/>
-      <c r="BF5" s="98"/>
-      <c r="BG5" s="98"/>
-      <c r="BH5" s="89" t="s">
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="99"/>
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="99"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="99"/>
+      <c r="BB5" s="99"/>
+      <c r="BC5" s="99"/>
+      <c r="BD5" s="99"/>
+      <c r="BE5" s="99"/>
+      <c r="BF5" s="99"/>
+      <c r="BG5" s="99"/>
+      <c r="BH5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="BI5" s="83" t="s">
+      <c r="BI5" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="89" t="s">
+      <c r="BJ5" s="85"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="BM5" s="90" t="s">
+      <c r="BM5" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="BN5" s="91" t="s">
+      <c r="BN5" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="BO5" s="91" t="s">
+      <c r="BO5" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="BP5" s="72" t="s">
+      <c r="BP5" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BQ5" s="72" t="s">
+      <c r="BQ5" s="73" t="s">
         <v>32</v>
       </c>
       <c r="BR5" s="10"/>
-      <c r="BS5" s="75" t="s">
+      <c r="BS5" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="BT5" s="75" t="s">
+      <c r="BT5" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="BU5" s="76" t="s">
+      <c r="BU5" s="77" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B6" s="109"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="89"/>
-      <c r="BI6" s="86"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="88"/>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="77"/>
-      <c r="BN6" s="92"/>
-      <c r="BO6" s="92"/>
-      <c r="BP6" s="73"/>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="77" t="s">
+    <row r="6" spans="2:75">
+      <c r="B6" s="110"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="101"/>
+      <c r="AO6" s="101"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="101"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="101"/>
+      <c r="AU6" s="101"/>
+      <c r="AV6" s="101"/>
+      <c r="AW6" s="101"/>
+      <c r="AX6" s="101"/>
+      <c r="AY6" s="101"/>
+      <c r="AZ6" s="101"/>
+      <c r="BA6" s="101"/>
+      <c r="BB6" s="101"/>
+      <c r="BC6" s="101"/>
+      <c r="BD6" s="101"/>
+      <c r="BE6" s="101"/>
+      <c r="BF6" s="101"/>
+      <c r="BG6" s="101"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="87"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="78"/>
+      <c r="BN6" s="93"/>
+      <c r="BO6" s="93"/>
+      <c r="BP6" s="74"/>
+      <c r="BQ6" s="74"/>
+      <c r="BR6" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="BS6" s="75"/>
-      <c r="BT6" s="75"/>
-      <c r="BU6" s="76"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="76"/>
+      <c r="BU6" s="77"/>
     </row>
-    <row r="7" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="66">
+    <row r="7" spans="2:75">
+      <c r="B7" s="110"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="67">
         <v>0.1</v>
       </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="79">
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="80">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="66">
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="67">
         <v>0.1</v>
       </c>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="82">
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="83">
         <v>0.1</v>
       </c>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82">
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83">
         <v>0.1</v>
       </c>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="67">
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="90"/>
+      <c r="AL7" s="68">
         <v>0.08</v>
       </c>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="66">
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="67">
         <v>0.08</v>
       </c>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="67">
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="68">
         <v>0.06</v>
       </c>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="67">
+      <c r="AT7" s="102"/>
+      <c r="AU7" s="102"/>
+      <c r="AV7" s="68">
         <v>0.08</v>
       </c>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="66">
+      <c r="AW7" s="102"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="67">
         <v>0.05</v>
       </c>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="66">
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67">
         <v>0.05</v>
       </c>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66">
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="67"/>
+      <c r="BE7" s="67">
         <v>0.05</v>
       </c>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="89"/>
-      <c r="BI7" s="68">
+      <c r="BF7" s="67"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="90"/>
+      <c r="BI7" s="69">
         <v>0.05</v>
       </c>
-      <c r="BJ7" s="66"/>
-      <c r="BK7" s="66"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="77"/>
-      <c r="BN7" s="92"/>
-      <c r="BO7" s="92"/>
-      <c r="BP7" s="73"/>
-      <c r="BQ7" s="73"/>
-      <c r="BR7" s="77"/>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="76"/>
+      <c r="BJ7" s="67"/>
+      <c r="BK7" s="67"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="93"/>
+      <c r="BO7" s="93"/>
+      <c r="BP7" s="74"/>
+      <c r="BQ7" s="74"/>
+      <c r="BR7" s="78"/>
+      <c r="BS7" s="76"/>
+      <c r="BT7" s="76"/>
+      <c r="BU7" s="77"/>
     </row>
-    <row r="8" spans="2:73" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="61" t="s">
+    <row r="8" spans="2:75" ht="40.5" customHeight="1">
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="69" t="s">
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="61" t="s">
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61" t="s">
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61" t="s">
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="62" t="s">
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="64"/>
-      <c r="AP8" s="61" t="s">
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="62" t="s">
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="62" t="s">
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="64"/>
-      <c r="AY8" s="65" t="s">
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="61" t="s">
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="BC8" s="61"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61" t="s">
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="89"/>
-      <c r="BI8" s="64" t="s">
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="BJ8" s="61"/>
-      <c r="BK8" s="61"/>
-      <c r="BL8" s="89"/>
-      <c r="BM8" s="77"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="73"/>
-      <c r="BQ8" s="73"/>
-      <c r="BR8" s="77"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="76"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="78"/>
+      <c r="BN8" s="93"/>
+      <c r="BO8" s="93"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="78"/>
+      <c r="BS8" s="76"/>
+      <c r="BT8" s="76"/>
+      <c r="BU8" s="77"/>
     </row>
-    <row r="9" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
+    <row r="9" spans="2:75">
+      <c r="B9" s="111"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="11" t="s">
         <v>50</v>
       </c>
@@ -2351,7 +2474,7 @@
       <c r="AJ9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AK9" s="89"/>
+      <c r="AK9" s="90"/>
       <c r="AL9" s="16" t="s">
         <v>54</v>
       </c>
@@ -2418,7 +2541,7 @@
       <c r="BG9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="BH9" s="89"/>
+      <c r="BH9" s="90"/>
       <c r="BI9" s="17" t="s">
         <v>50</v>
       </c>
@@ -2428,18 +2551,18 @@
       <c r="BK9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="BL9" s="89"/>
-      <c r="BM9" s="78"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="74"/>
-      <c r="BQ9" s="74"/>
-      <c r="BR9" s="78"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="76"/>
+      <c r="BL9" s="90"/>
+      <c r="BM9" s="79"/>
+      <c r="BN9" s="94"/>
+      <c r="BO9" s="94"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="79"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="76"/>
+      <c r="BU9" s="77"/>
     </row>
-    <row r="10" spans="2:73" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:75" ht="27" customHeight="1">
       <c r="B10" s="23">
         <v>1</v>
       </c>
@@ -2510,8 +2633,8 @@
         <v>0.1</v>
       </c>
       <c r="Y10" s="32">
-        <f>VLOOKUP($C10,'[1]DATA UNTUK TL'!$C$248:BB9823,17,0)</f>
-        <v>0.84782608695652173</v>
+        <f>VLOOKUP($C10,'[1]DATA UNTUK TL'!$C$244:BB9819,17,0)</f>
+        <v>0.875</v>
       </c>
       <c r="Z10" s="35">
         <f>IF(Y10&lt;70%,1,IF(AND(Y10&gt;=70%,Y10&lt;80%),2,IF(AND(Y10&gt;=80%,Y10&lt;90%),3,IF(AND(Y10&gt;=90%,Y10&lt;100%),4,5))))</f>
@@ -2533,7 +2656,7 @@
         <v>0.1</v>
       </c>
       <c r="AE10" s="39">
-        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C248:BM250,63,0)</f>
+        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C244:BM246,63,0)</f>
         <v>1</v>
       </c>
       <c r="AF10" s="40">
@@ -2563,30 +2686,30 @@
         <v>0.92</v>
       </c>
       <c r="AM10" s="43">
-        <v>0.94640000000000002</v>
+        <v>0.90510000000000002</v>
       </c>
       <c r="AN10" s="44">
         <f>IF(AM10&lt;AL10,1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="45">
         <f>AN10*$AL$7/5</f>
-        <v>0.08</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AP10" s="46">
-        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C248:BN250,48,0)</f>
-        <v>0.69565217391304346</v>
+        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C244:BN246,48,0)</f>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AQ10" s="47">
         <f>IF(AP10&gt;=90%,5,IF(AND(AP10&gt;=80%,AP10&lt;90%),4,IF(AND(AP10&gt;=70%,AP10&lt;80%),3,IF(AND(AP10&gt;=60%,AP10&lt;70%),2,1))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR10" s="38">
         <f>AQ10*$AP$7/5</f>
-        <v>3.2000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AS10" s="32">
-        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C248:BI250,51,0)</f>
+        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C244:BI246,51,0)</f>
         <v>1</v>
       </c>
       <c r="AT10" s="47">
@@ -2598,8 +2721,8 @@
         <v>0.06</v>
       </c>
       <c r="AV10" s="48">
-        <f>VLOOKUP($C10,'[1]DATA UNTUK TL'!$C$248:BC9823,43,0)</f>
-        <v>0.84782608695652173</v>
+        <f>VLOOKUP($C10,'[1]DATA UNTUK TL'!$C$244:BC9819,43,0)</f>
+        <v>0.90625</v>
       </c>
       <c r="AW10" s="47">
         <f>IF(AV10&lt;100%,1,5)</f>
@@ -2610,7 +2733,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="AY10" s="48">
-        <v>0.89249999999999996</v>
+        <f>VLOOKUP(C10,'[1]DATA UNTUK TL'!C244:BM246,54,0)</f>
+        <v>0.91890000000000005</v>
       </c>
       <c r="AZ10" s="47">
         <f>IF(AY10&lt;85%,1,5)</f>
@@ -2621,7 +2745,8 @@
         <v>0.05</v>
       </c>
       <c r="BB10" s="49">
-        <v>0.66800000000000004</v>
+        <f>VLOOKUP($C10,'[1]DATA UNTUK TL'!$C$244:AAG9819,59,0)</f>
+        <v>0.64680000000000004</v>
       </c>
       <c r="BC10" s="47">
         <f>IF(BB10&lt;40%,1,5)</f>
@@ -2644,7 +2769,7 @@
       </c>
       <c r="BH10" s="51">
         <f>AO10+AR10+AU10+AX10+BA10+BD10+BG10</f>
-        <v>0.33799999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BI10" s="48">
         <v>0.98476613725775897</v>
@@ -2663,7 +2788,7 @@
       </c>
       <c r="BM10" s="52">
         <f>AK10+BH10+BL10</f>
-        <v>0.82799999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="BN10" s="53" t="str">
         <f>IF(BU10&gt;0,"GUGUR","TERIMA")</f>
@@ -2674,25 +2799,26 @@
       </c>
       <c r="BP10" s="55">
         <f>BO10*BM10</f>
-        <v>2111400</v>
+        <v>1989000</v>
       </c>
       <c r="BQ10" s="56">
         <f>IF(S10&gt;0,(T10/M10)*BP10,BP10)</f>
-        <v>2111400</v>
+        <v>1989000</v>
       </c>
       <c r="BR10" s="57">
         <f>IF(L10=1,(T10/M10)*BQ10,IF(BS10&gt;0,BQ10*85%,IF(BT10&gt;0,BQ10*60%,IF(BU10&gt;0,BQ10*0%,BQ10))))</f>
-        <v>2111400</v>
+        <v>1989000</v>
       </c>
       <c r="BS10" s="58"/>
       <c r="BT10" s="59"/>
       <c r="BU10" s="59"/>
+      <c r="BW10" s="60"/>
     </row>
-    <row r="11" spans="2:73" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:75" ht="27" customHeight="1">
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="25">
@@ -2759,8 +2885,8 @@
         <v>0.1</v>
       </c>
       <c r="Y11" s="32">
-        <f>VLOOKUP($C11,'[1]DATA UNTUK TL'!$C$248:BB9824,17,0)</f>
-        <v>0.83495145631067957</v>
+        <f>VLOOKUP($C11,'[1]DATA UNTUK TL'!$C$244:BB9820,17,0)</f>
+        <v>0.81914893617021278</v>
       </c>
       <c r="Z11" s="35">
         <f>IF(Y11&lt;70%,1,IF(AND(Y11&gt;=70%,Y11&lt;80%),2,IF(AND(Y11&gt;=80%,Y11&lt;90%),3,IF(AND(Y11&gt;=90%,Y11&lt;100%),4,5))))</f>
@@ -2782,8 +2908,8 @@
         <v>0.1</v>
       </c>
       <c r="AE11" s="39">
-        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C249:BM251,63,0)</f>
-        <v>1.0097087378640777</v>
+        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C245:BM247,63,0)</f>
+        <v>1.0106382978723405</v>
       </c>
       <c r="AF11" s="40">
         <f>IF(AE11&gt;95%,5,IF(AE11=95%,3,1))</f>
@@ -2812,19 +2938,19 @@
         <v>0.92</v>
       </c>
       <c r="AM11" s="43">
-        <v>0.94640000000000002</v>
+        <v>0.90510000000000002</v>
       </c>
       <c r="AN11" s="44">
         <f>IF(AM11&lt;AL11,1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="45">
         <f>AN11*$AL$7/5</f>
-        <v>0.08</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AP11" s="46">
-        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C248:BN251,48,0)</f>
-        <v>0.75728155339805825</v>
+        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C244:BN247,48,0)</f>
+        <v>0.73404255319148937</v>
       </c>
       <c r="AQ11" s="47">
         <f>IF(AP11&gt;=90%,5,IF(AND(AP11&gt;=80%,AP11&lt;90%),4,IF(AND(AP11&gt;=70%,AP11&lt;80%),3,IF(AND(AP11&gt;=60%,AP11&lt;70%),2,1))))</f>
@@ -2835,8 +2961,8 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AS11" s="32">
-        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C248:BI251,51,0)</f>
-        <v>1.0097087378640777</v>
+        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C244:BI247,51,0)</f>
+        <v>1.0106382978723405</v>
       </c>
       <c r="AT11" s="47">
         <f>IF(AS11&gt;=90%,5,IF(AND(AS11&gt;=80%,AS11&lt;90%),4,IF(AND(AS11&gt;=70%,AS11&lt;80%),3,IF(AND(AS11&gt;=60%,AS11&lt;70%),2,1))))</f>
@@ -2847,8 +2973,8 @@
         <v>0.06</v>
       </c>
       <c r="AV11" s="48">
-        <f>VLOOKUP($C11,'[1]DATA UNTUK TL'!$C$248:BC9824,43,0)</f>
-        <v>0.87378640776699024</v>
+        <f>VLOOKUP($C11,'[1]DATA UNTUK TL'!$C$244:BC9820,43,0)</f>
+        <v>0.87234042553191493</v>
       </c>
       <c r="AW11" s="47">
         <f>IF(AV11&lt;100%,1,5)</f>
@@ -2859,7 +2985,8 @@
         <v>1.6E-2</v>
       </c>
       <c r="AY11" s="48">
-        <v>0.89249999999999996</v>
+        <f>VLOOKUP(C11,'[1]DATA UNTUK TL'!C244:BM247,54,0)</f>
+        <v>0.91890000000000005</v>
       </c>
       <c r="AZ11" s="47">
         <f>IF(AY11&lt;85%,1,5)</f>
@@ -2870,7 +2997,8 @@
         <v>0.05</v>
       </c>
       <c r="BB11" s="49">
-        <v>0.66800000000000004</v>
+        <f>VLOOKUP($C11,'[1]DATA UNTUK TL'!$C$244:AAG9820,59,0)</f>
+        <v>0.64680000000000004</v>
       </c>
       <c r="BC11" s="47">
         <f>IF(BB11&lt;40%,1,5)</f>
@@ -2893,7 +3021,7 @@
       </c>
       <c r="BH11" s="51">
         <f>AO11+AR11+AU11+AX11+BA11+BD11+BG11</f>
-        <v>0.35399999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BI11" s="48">
         <v>0.98476613725775897</v>
@@ -2912,7 +3040,7 @@
       </c>
       <c r="BM11" s="52">
         <f>AK11+BH11+BL11</f>
-        <v>0.84399999999999997</v>
+        <v>0.78</v>
       </c>
       <c r="BN11" s="53" t="str">
         <f>IF(BU11&gt;0,"GUGUR","TERIMA")</f>
@@ -2923,15 +3051,15 @@
       </c>
       <c r="BP11" s="55">
         <f>BO11*BM11</f>
-        <v>2152200</v>
+        <v>1989000</v>
       </c>
       <c r="BQ11" s="56">
         <f>IF(S11&gt;0,(T11/M11)*BP11,BP11)</f>
-        <v>2152200</v>
+        <v>1989000</v>
       </c>
       <c r="BR11" s="57">
         <f>IF(L11=1,(T11/M11)*BQ11,IF(BS11&gt;0,BQ11*85%,IF(BT11&gt;0,BQ11*60%,IF(BU11&gt;0,BQ11*0%,BQ11))))</f>
-        <v>2152200</v>
+        <v>1989000</v>
       </c>
       <c r="BS11" s="58"/>
       <c r="BT11" s="59"/>
